--- a/BVNSA/CurvaNss.xlsx
+++ b/BVNSA/CurvaNss.xlsx
@@ -223,7 +223,7 @@
       </c>
       <c t="inlineStr" s="2" r="B2">
         <is>
-          <t>Curva NSS del 17/11/2022</t>
+          <t>Curva NSS del 07/12/2022</t>
         </is>
       </c>
     </row>
@@ -254,104 +254,6 @@
         <is>
           <t>Rendimiento NSS</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="65">
-        <v>365</v>
-      </c>
-      <c t="n" r="C6">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D6">
-        <v>4.06052</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="63">
-        <v>1095</v>
-      </c>
-      <c t="n" r="C7">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D7">
-        <v>4.17060</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="inlineStr" r="A8">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
-      <c r="B8" s="63">
-        <v>1739</v>
-      </c>
-      <c t="n" r="C8">
-        <v>4.25000</v>
-      </c>
-      <c t="n" r="D8">
-        <v>4.25000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="63">
-        <v>1825</v>
-      </c>
-      <c t="n" r="C9">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D9">
-        <v>4.25950</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="63">
-        <v>3650</v>
-      </c>
-      <c t="n" r="C10">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D10">
-        <v>4.41163</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="63">
-        <v>4380</v>
-      </c>
-      <c t="n" r="C11">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D11">
-        <v>4.45146</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="63">
-        <v>5475</v>
-      </c>
-      <c t="n" r="C12">
-        <v>0.00000</v>
-      </c>
-      <c t="n" r="D12">
-        <v>4.49506</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="inlineStr" r="A13">
-        <is>
-          <t>18/11/2037</t>
-        </is>
-      </c>
-      <c r="B13" s="63">
-        <v>5629</v>
-      </c>
-      <c t="n" r="C13">
-        <v>4.49990</v>
-      </c>
-      <c t="n" r="D13">
-        <v>4.49990</v>
       </c>
     </row>
   </sheetData>
